--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Type évènement Code System</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -330,120 +333,122 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -461,63 +466,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T15:16:11+00:00</t>
+    <t>2024-07-01T07:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -287,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -389,66 +395,74 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -466,63 +480,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-siph-typeevenement-oncofair-codesystem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
